--- a/biology/Zoologie/Celastrina/Celastrina.xlsx
+++ b/biology/Zoologie/Celastrina/Celastrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celastrina est un genre de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Celastrina a été décrit par l'entomologiste britannique James William Tutt en 1906.
-Son espèce type est Papilio argiolus Linnaeus, 1758[1].
+Son espèce type est Papilio argiolus Linnaeus, 1758.
 Il a pour synonymes :
 Cyaniriodes Matsumura, 1919 (homonyme junior de Cyaniroides de Nicéville 1890)
 Maslowskia Kurentzov, 1974</t>
@@ -545,14 +559,16 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Celastrina comprend environ 26 espèces, toutes originaires de l'hémisphère nord, avec une diversité particulière en Asie et en Amérique du Nord[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Celastrina comprend environ 26 espèces, toutes originaires de l'hémisphère nord, avec une diversité particulière en Asie et en Amérique du Nord :
 Celastrina argiolus (Linnaeus, 1758) — l'Azuré des nerpruns — en Eurasie en Afrique du Nord.
 Celastrina phellodendroni Omelko, 1987 — en Oussouri.
 Celastrina sugitanii (Matsumura, 1919) — en Extrême-Orient.
 Celastrina ogasawaraensis (Pryer, 1886) — en Japon.
-Celastrina ladon (Cramer, [1780]) — en Amérique du Nord.
+Celastrina ladon (Cramer, ) — en Amérique du Nord.
 Celastrina lucia (Kirby, 1837) — dans le Nord de l'Amérique du Nord.
 Celastrina neglecta (Edwards, 1862) — dans l'Est de l'Amérique du Nord.
 Celastrina echo (Edwards, 1864) — dans l'Ouest de l'Amérique du Nord.
@@ -564,7 +580,7 @@
 Celastrina serotina Pavulaan &amp; Wright, 2005 — dans le Nord-Est de l'Amérique du Nord.
 Celastrina fedoseevi Korshunov &amp; Ivonin, 1990 — en Extrême-Orient.
 Celastrina gigas (Hemming, 1928) — dans l'Himalaya.
-Celastrina hersilia (Leech, [1893]) — dans l'Himalaya.
+Celastrina hersilia (Leech, ) — dans l'Himalaya.
 Celastrina algernoni (Fruhstorfer, 1917) — aux Philippines et en Indonésie.
 Celastrina huegelii (Moore, 1882) — de Ceylan à l'Himalaya.
 Celastrina lavendularis (Moore, 1877) — de l'Inde aux Philippines et à l'Indonésie.
@@ -573,7 +589,7 @@
 Celastrina philippina (Semper, 1889) — aux Philippines et en Indonésie.
 Celastrina perplexa Eliot &amp; Kawazoé, 1983 — en Chine.
 Celastrina filipjevi (Riley, 1934) — en Extrême-Orient.
-Celastrina oreas (Leech, [1893]) — de l'Inde à l'Extrême-Orient.
+Celastrina oreas (Leech, ) — de l'Inde à l'Extrême-Orient.
 			Celastrina argiolus
 			Celastrina sugitanii
 			Celastrina ladon
